--- a/GPR/results_f/virtual_samples_RationalQuadratic.xlsx
+++ b/GPR/results_f/virtual_samples_RationalQuadratic.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.918130412672374</v>
+        <v>1.918130441636597</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>1.676177010064924</v>
+        <v>1.676177042168663</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.993529424803791</v>
+        <v>2.993529438461547</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>2.674029156619771</v>
+        <v>2.674029174443763</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.644621953635024</v>
+        <v>2.644621972178447</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.54574745516313</v>
+        <v>1.545747429445408</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" t="n">
-        <v>1.308675182587278</v>
+        <v>1.308675156272422</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>2.599450995908642</v>
+        <v>2.599450973900616</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.75</v>
       </c>
       <c r="C10" t="n">
-        <v>2.286396976525048</v>
+        <v>2.286396953703056</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2.257583237490524</v>
+        <v>2.257583214332177</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5140179420795288</v>
+        <v>0.514017977165216</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2769460845232827</v>
+        <v>0.2769461187689626</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.56772182380066</v>
+        <v>1.567721862609664</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.75</v>
       </c>
       <c r="C15" t="n">
-        <v>1.254667878461043</v>
+        <v>1.254667916199588</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.225853724406929</v>
+        <v>1.225853762051981</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.525959549007663</v>
+        <v>1.525959482000541</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.25</v>
       </c>
       <c r="C18" t="n">
-        <v>1.284005425954288</v>
+        <v>1.284005362066579</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2.601358026548494</v>
+        <v>2.601357944237136</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.75</v>
       </c>
       <c r="C20" t="n">
-        <v>2.281857572509136</v>
+        <v>2.281857494341678</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2.252451089970308</v>
+        <v>2.252451012542386</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.125</v>
       </c>
       <c r="C22" t="n">
-        <v>1.335038318869363</v>
+        <v>1.335038260586344</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.125</v>
       </c>
       <c r="C23" t="n">
-        <v>1.482864027318982</v>
+        <v>1.482863966528936</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5051766116095726</v>
+        <v>0.5051765653146434</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2530471109883961</v>
+        <v>0.2530470677418097</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.125</v>
       </c>
       <c r="C26" t="n">
-        <v>2.149547498248942</v>
+        <v>2.149547428379642</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.375</v>
       </c>
       <c r="C27" t="n">
-        <v>2.221530009704534</v>
+        <v>2.221530026168429</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0.375</v>
       </c>
       <c r="C28" t="n">
-        <v>2.366373773892191</v>
+        <v>2.366373790983626</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.375</v>
       </c>
       <c r="C29" t="n">
-        <v>1.408409868666165</v>
+        <v>1.408409882173768</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.375</v>
       </c>
       <c r="C30" t="n">
-        <v>1.161367460089776</v>
+        <v>1.161367472915389</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>0.375</v>
       </c>
       <c r="C31" t="n">
-        <v>3.019607382226826</v>
+        <v>3.01960740150416</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.625</v>
       </c>
       <c r="C32" t="n">
-        <v>2.845668711580373</v>
+        <v>2.845668722099329</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.625</v>
       </c>
       <c r="C33" t="n">
-        <v>2.990512440947253</v>
+        <v>2.990512452145241</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.625</v>
       </c>
       <c r="C34" t="n">
-        <v>2.032548536867431</v>
+        <v>2.032548544428009</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.625</v>
       </c>
       <c r="C35" t="n">
-        <v>1.785506127144833</v>
+        <v>1.785506134077002</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="n">
-        <v>3.643746084102668</v>
+        <v>3.64374609743506</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.875</v>
       </c>
       <c r="C37" t="n">
-        <v>2.310619191416536</v>
+        <v>2.310619142654301</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0.875</v>
       </c>
       <c r="C38" t="n">
-        <v>2.458444977027362</v>
+        <v>2.458444925775268</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0.875</v>
       </c>
       <c r="C39" t="n">
-        <v>1.480757536827638</v>
+        <v>1.4807575000539</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0.875</v>
       </c>
       <c r="C40" t="n">
-        <v>1.228628060696779</v>
+        <v>1.228628026988137</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.875</v>
       </c>
       <c r="C41" t="n">
-        <v>3.125128370796117</v>
+        <v>3.125128310447597</v>
       </c>
     </row>
   </sheetData>
